--- a/xlsx/CaVaTeCo/form_v_horas.xlsx
+++ b/xlsx/CaVaTeCo/form_v_horas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_ilrg_lamadi\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE6396-A3FF-4CD8-8AA3-EC291F4C26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59762BE-44F3-42A1-9E01-BB3BFC8F3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
     <t>pulldata('enum_names_lamadi_sofala', 'enumerator_name', 'name_id_key', ${enum_name_id})</t>
   </si>
   <si>
-    <t>. &lt; today()</t>
+    <t xml:space="preserve">. &lt;= today()  </t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1613,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7163,7 +7163,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7200,7 +7200,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="62">
-        <v>2022020201</v>
+        <v>2022092901</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>118</v>
